--- a/biology/Médecine/Helminthe/Helminthe.xlsx
+++ b/biology/Médecine/Helminthe/Helminthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helminthe est un ancien nom vulgarisé synonyme de vers parasites. Dans les helminthes sont inclus des représentants de deux groupes d'animaux qui comprennent chacun à la fois des vers parasites et des vers non parasites et qui ont « helminthe » dans leur nom, les Plathelminthes et les Némathelminthes; mais les Acanthocéphales (un autre groupe) sont aussi des helminthes. Le terme helminthe ne correspond donc pas à une catégorie zoologique précise et surtout pas à un groupe monophylétique.
 Le ver solitaire est un des helminthes les plus connus.
@@ -512,7 +524,9 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue ; 
 les Nématozoaires ou némathelminthes (vers ronds). Ils ont souvent un cycle direct mais peuvent aussi utiliser au moins un hôte intermédiaire (obligatoire ou facultatif, selon l'espèce) (ex. : ascaris). Les Acanthocéphales sont ceux des Némathelminthes qui ont au moins un hôte intermédiaire obligatoire.
@@ -548,7 +562,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les helminthes, selon l'espèce considérée et leur étape de développement, parasitent différents organes, dont :
 intestin,
@@ -582,7 +598,9 @@
           <t>Maladies causées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">le diagnostic des helminthes se fait généralement par observation des vers adultes a l'œil nu dans le sol pour certains et pour d'autres le diagnostic se fait microscopiquement par observation des oeufs où des larves dans l'examen coprologique
 </t>
@@ -613,7 +631,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se fait par observation macroscopique des selles (où l'on peut voir à l'œil nu les femelles d'oxyures ou des anneaux de ténias…) ou détection au microscope sur des échantillons à l'état frais d'œufs ou de larves.
 les helminthiases sont cosmopolite où ubiquitaire dont la plus part parasites les enfants et restent une préoccupation majeure là où le problème d'hygiène pose problème 
@@ -645,7 +665,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les helmintes sont répandus dans le monde entier, avec une nette prédominance dans la ceinture intertropicale où les verminoses sont un problème sanitaire considérable, dont on imagine mal l'ampleur quand on vit en Europe.
 </t>
@@ -676,10 +698,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les médicaments ou pesticides qui tuent les helminthes sont dits anthelminthique ou vermifuges (ex : acide domoïque).
-Les réponses immunitaires aux helminthes chez les individus et les populations, principalement en Afrique sont étudiées notamment par le laboratoire de Francisca Mutapi à l'université d'Édimbourg, le Parasite Immuno-epidemiology Group[1].
+Les réponses immunitaires aux helminthes chez les individus et les populations, principalement en Afrique sont étudiées notamment par le laboratoire de Francisca Mutapi à l'université d'Édimbourg, le Parasite Immuno-epidemiology Group.
 </t>
         </is>
       </c>
